--- a/2. 연구사업(2023년)/6. 분석결과/data_analysis/Log chart_양이온 표시기준 실제값 차이(Log변환)/Ca/ca_data.xlsx
+++ b/2. 연구사업(2023년)/6. 분석결과/data_analysis/Log chart_양이온 표시기준 실제값 차이(Log변환)/Ca/ca_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\R_coding\[사업] 2023_혼합음료\4. 양이온 표시기준 실제값 차이(Log변환)\Ca\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Study\2. 연구사업(2023년)\6. 분석결과\data_analysis\Log chart_양이온 표시기준 실제값 차이(Log변환)\Ca\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="81">
   <si>
     <t>Ca</t>
   </si>
@@ -261,6 +261,10 @@
   </si>
   <si>
     <t>Sample</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ca_min</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -268,7 +272,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -304,6 +311,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -313,27 +328,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -359,19 +359,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -592,10 +592,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D136"/>
+  <dimension ref="A1:E136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="A1:E136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -605,1880 +605,2260 @@
     <col min="3" max="16384" width="12.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="E1" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="6">
         <v>39.6</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="6">
         <v>3.09</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="E2" s="5">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="6">
         <v>8.6999999999999993</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="6">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="E3" s="5">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="6">
         <v>85.18</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="6">
         <v>87.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="E4" s="5">
+        <v>87.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="6">
         <v>32.619999999999997</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="6">
         <v>27.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="E5" s="5">
+        <v>27.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="6">
         <v>3.18</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="E6" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="6">
         <v>0.93</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="6">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="E7" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="6">
         <v>44.54</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="6">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="E8" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="6">
         <v>3.09</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="6">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="E9" s="5">
         <v>11</v>
       </c>
-      <c r="C10" s="3">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="6">
         <v>2.69</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="E10" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="6">
         <v>12.96</v>
       </c>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="6">
         <v>12.87</v>
       </c>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="6">
         <v>67.12</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="6">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="E13" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="6">
         <v>10.85</v>
       </c>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="6">
         <v>36.57</v>
       </c>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="6">
         <v>16.57</v>
       </c>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="D16" s="3"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="6">
         <v>25.59</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="6">
         <v>65</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="E17" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="6">
         <v>84.12</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="6">
         <v>87</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="6" t="s">
+      <c r="E18" s="5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="6">
         <v>29.37</v>
       </c>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="6" t="s">
+      <c r="D19" s="3"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="6">
         <v>23.2</v>
       </c>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="6" t="s">
+      <c r="D20" s="3"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="6">
         <v>57.06</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="6">
         <v>62.81</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="E21" s="5">
+        <v>62.81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="6">
         <v>10.14</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="6">
         <v>30.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" s="6" t="s">
+      <c r="E22" s="5">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="6">
         <v>30.81</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="6">
         <v>42</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" s="6" t="s">
+      <c r="E23" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="6">
         <v>14.6</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="6">
         <v>25.75</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" s="6" t="s">
+      <c r="E24" s="5">
+        <v>23.06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="6">
         <v>54.03</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="6">
         <v>64.7</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="6" t="s">
+      <c r="E25" s="5">
+        <v>43.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="6">
         <v>84.64</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="6">
         <v>43.6</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" s="6" t="s">
+      <c r="E26" s="5">
+        <v>43.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="6">
         <v>36.39</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="6">
         <v>26.6</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" s="6" t="s">
+      <c r="E27" s="5">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="6">
         <v>13.72</v>
       </c>
-      <c r="D28" s="7"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B29" s="6" t="s">
+      <c r="D28" s="3"/>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="6">
         <v>73.540000000000006</v>
       </c>
-      <c r="D29" s="7"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B30" s="6" t="s">
+      <c r="D29" s="3"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="6">
         <v>109.39</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="6">
         <v>129.4</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31" s="6" t="s">
+      <c r="E30" s="5">
+        <v>86.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="6">
         <v>56.79</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="6">
         <v>60.02</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B32" s="6" t="s">
+      <c r="E31" s="5">
+        <v>40.01</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="6">
         <v>10.9</v>
       </c>
-      <c r="D32" s="7"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B33" s="6" t="s">
+      <c r="D32" s="3"/>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="6">
         <v>0.3</v>
       </c>
-      <c r="D33" s="7"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" s="6" t="s">
+      <c r="D33" s="3"/>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="6">
         <v>34.450000000000003</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="6">
         <v>7.86</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B35" s="6" t="s">
+      <c r="E34" s="5">
+        <v>7.86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="6">
         <v>17.12</v>
       </c>
-      <c r="D35" s="7"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B36" s="6" t="s">
+      <c r="D35" s="3"/>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="6">
         <v>18.46</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="6">
         <v>22</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B37" s="6" t="s">
+      <c r="E36" s="5">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="6">
         <v>16.829999999999998</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="6">
         <v>22</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B38" s="6" t="s">
+      <c r="E37" s="5">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="6">
         <v>21.88</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="6">
         <v>28.1</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="6" t="s">
+      <c r="E38" s="5">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="6">
         <v>22.21</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="6">
         <v>28.1</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B40" s="6" t="s">
+      <c r="E39" s="5">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="6">
         <v>16.73</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="6">
         <v>22</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B41" s="6" t="s">
+      <c r="E40" s="5">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="6">
         <v>28.25</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="6">
         <v>28.1</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42" s="6" t="s">
+      <c r="E41" s="5">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="6">
         <v>20.49</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="6">
         <v>28.1</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B43" s="6" t="s">
+      <c r="E42" s="5">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="6">
         <v>23.31</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="6">
         <v>28.1</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B44" s="6" t="s">
+      <c r="E43" s="5">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="6">
         <v>26.8</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="6">
         <v>28.1</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" s="6" t="s">
+      <c r="E44" s="5">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="6">
         <v>26.91</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="6">
         <v>28.1</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B46" s="6" t="s">
+      <c r="E45" s="5">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="6">
         <v>5.0199999999999996</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="6">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B47" s="6" t="s">
+      <c r="E46" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="6">
         <v>5.04</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="6">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B48" s="6" t="s">
+      <c r="E47" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="6">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="6">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B49" s="6" t="s">
+      <c r="E48" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="6">
         <v>5.07</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="6">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B50" s="6" t="s">
+      <c r="E49" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="6">
         <v>24.44</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="6">
         <v>28.3</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B51" s="6" t="s">
+      <c r="E50" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="6">
         <v>23.47</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="6">
         <v>28.3</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B52" s="6" t="s">
+      <c r="E51" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="6">
         <v>33.770000000000003</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="6">
         <v>37.9</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B53" s="6" t="s">
+      <c r="E52" s="5">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="6">
         <v>33.47</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="6">
         <v>37.9</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B54" s="6" t="s">
+      <c r="E53" s="5">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="6">
         <v>15.72</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="6">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B55" s="6" t="s">
+      <c r="E54" s="5">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="6">
         <v>21.65</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="6">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B56" s="6" t="s">
+      <c r="E55" s="5">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="6">
         <v>23.3</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="6">
         <v>25</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B57" s="6" t="s">
+      <c r="E56" s="5">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="6">
         <v>11.69</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="6">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B58" s="6" t="s">
+      <c r="E57" s="5">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="6">
         <v>12.58</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="6">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B59" s="6" t="s">
+      <c r="E58" s="5">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="6">
         <v>23.18</v>
       </c>
-      <c r="D59" s="7"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B60" s="6" t="s">
+      <c r="D59" s="3"/>
+      <c r="E59" s="5"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="6">
         <v>15.62</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="6">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B61" s="6" t="s">
+      <c r="E60" s="5">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="6">
         <v>13.43</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="6">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B62" s="6" t="s">
+      <c r="E61" s="5">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="6">
         <v>14.52</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="6">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B63" s="6" t="s">
+      <c r="E62" s="5">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="6">
         <v>23.09</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="6">
         <v>37</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B64" s="6" t="s">
+      <c r="E63" s="5">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="6">
         <v>22.45</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="6">
         <v>25</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B65" s="6" t="s">
+      <c r="E64" s="5">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="6">
         <v>22</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65" s="6">
         <v>25</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B66" s="6" t="s">
+      <c r="E65" s="5">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="6">
         <v>22.27</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="6">
         <v>25</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B67" s="6" t="s">
+      <c r="E66" s="5">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="6">
         <v>14.35</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67" s="6">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B68" s="6" t="s">
+      <c r="E67" s="5">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" s="6">
         <v>13.57</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68" s="6">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B69" s="6" t="s">
+      <c r="E68" s="5">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="6">
         <v>14.28</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69" s="6">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B70" s="6" t="s">
+      <c r="E69" s="5">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="6">
         <v>13.98</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" s="6">
         <v>16</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B71" s="6" t="s">
+      <c r="E70" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" s="6">
         <v>18.88</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71" s="6">
         <v>19.989999999999998</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B72" s="6" t="s">
+      <c r="E71" s="5">
+        <v>13.94</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72" s="6">
         <v>75.010000000000005</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="6">
         <v>30.1</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B73" s="6" t="s">
+      <c r="E72" s="5">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="6">
         <v>77.87</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73" s="6">
         <v>30.1</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B74" s="6" t="s">
+      <c r="E73" s="5">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74" s="6">
         <v>84.02</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74" s="6">
         <v>30.1</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B75" s="6" t="s">
+      <c r="E74" s="5">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75" s="6">
         <v>79.53</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75" s="6">
         <v>30.1</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B76" s="6" t="s">
+      <c r="E75" s="5">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C76" s="6">
         <v>80.099999999999994</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="6">
         <v>30.1</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B77" s="6" t="s">
+      <c r="E76" s="5">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77" s="6">
         <v>83.2</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D77" s="6">
         <v>30.1</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B78" s="6" t="s">
+      <c r="E77" s="5">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78" s="6">
         <v>29.69</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D78" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B79" s="6" t="s">
+      <c r="E78" s="5">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C79" s="6">
         <v>14.84</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D79" s="6">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B80" s="6" t="s">
+      <c r="E79" s="5">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C80" s="6">
         <v>17.329999999999998</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D80" s="6">
         <v>19.989999999999998</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B81" s="6" t="s">
+      <c r="E80" s="5">
+        <v>13.94</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B81" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C81" s="6">
         <v>28.1</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="6">
         <v>63.2</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B82" s="6" t="s">
+      <c r="E81" s="5">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B82" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C82" s="6">
         <v>20.09</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D82" s="6">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B83" s="6" t="s">
+      <c r="E82" s="5">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C83" s="6">
         <v>21.79</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="6">
         <v>25</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B84" s="6" t="s">
+      <c r="E83" s="5">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C84" s="6">
         <v>27.96</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84" s="6">
         <v>63.2</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B85" s="6" t="s">
+      <c r="E84" s="5">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C85" s="6">
         <v>37.89</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D85" s="6">
         <v>63.2</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B86" s="6" t="s">
+      <c r="E85" s="5">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C86" s="3">
+      <c r="C86" s="6">
         <v>3.76</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D86" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B87" s="6" t="s">
+      <c r="E86" s="5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87" s="6">
         <v>3.47</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D87" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B88" s="6" t="s">
+      <c r="E87" s="5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C88" s="3">
+      <c r="C88" s="6">
         <v>3.43</v>
       </c>
-      <c r="D88" s="3">
+      <c r="D88" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B89" s="6" t="s">
+      <c r="E88" s="5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B89" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89" s="6">
         <v>3.43</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B90" s="6" t="s">
+      <c r="E89" s="5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C90" s="6">
         <v>3.43</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D90" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B91" s="6" t="s">
+      <c r="E90" s="5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C91" s="6">
         <v>3.41</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B92" s="6" t="s">
+      <c r="E91" s="5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B92" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C92" s="6">
         <v>22.62</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D92" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B93" s="6" t="s">
+      <c r="E92" s="5">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B93" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C93" s="6">
         <v>22.51</v>
       </c>
-      <c r="D93" s="3">
+      <c r="D93" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B94" s="6" t="s">
+      <c r="E93" s="5">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B94" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94" s="6">
         <v>24.29</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B95" s="6" t="s">
+      <c r="E94" s="5">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B95" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C95" s="6">
         <v>26.55</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D95" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B96" s="6" t="s">
+      <c r="E95" s="5">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B96" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C96" s="6">
         <v>22.37</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D96" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B97" s="6" t="s">
+      <c r="E96" s="5">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B97" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C97" s="3">
+      <c r="C97" s="6">
         <v>33.340000000000003</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D97" s="6">
         <v>63.2</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B98" s="6" t="s">
+      <c r="E97" s="5">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B98" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C98" s="3">
+      <c r="C98" s="6">
         <v>30.6</v>
       </c>
-      <c r="D98" s="3">
+      <c r="D98" s="6">
         <v>63.2</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B99" s="6" t="s">
+      <c r="E98" s="5">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B99" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C99" s="6">
         <v>30</v>
       </c>
-      <c r="D99" s="3">
+      <c r="D99" s="6">
         <v>63.2</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B100" s="6" t="s">
+      <c r="E99" s="5">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B100" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C100" s="3">
+      <c r="C100" s="6">
         <v>29.91</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="6">
         <v>63.2</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B101" s="6" t="s">
+      <c r="E100" s="5">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B101" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C101" s="3">
+      <c r="C101" s="6">
         <v>25.39</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="6">
         <v>22</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B102" s="6" t="s">
+      <c r="E101" s="5">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B102" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C102" s="3">
+      <c r="C102" s="6">
         <v>28.49</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="6">
         <v>22</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B103" s="6" t="s">
+      <c r="E102" s="5">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B103" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C103" s="3">
+      <c r="C103" s="6">
         <v>22.96</v>
       </c>
-      <c r="D103" s="3">
+      <c r="D103" s="6">
         <v>28.3</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B104" s="6" t="s">
+      <c r="E103" s="5">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B104" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C104" s="3">
+      <c r="C104" s="6">
         <v>12.67</v>
       </c>
-      <c r="D104" s="7"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B105" s="6" t="s">
+      <c r="D104" s="3"/>
+      <c r="E104" s="5"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B105" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C105" s="3">
+      <c r="C105" s="6">
         <v>17.7</v>
       </c>
-      <c r="D105" s="3">
+      <c r="D105" s="6">
         <v>19.989999999999998</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B106" s="6" t="s">
+      <c r="E105" s="5">
+        <v>13.94</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B106" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C106" s="3">
+      <c r="C106" s="6">
         <v>14.68</v>
       </c>
-      <c r="D106" s="3">
+      <c r="D106" s="6">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B107" s="6" t="s">
+      <c r="E106" s="5">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B107" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C107" s="3">
+      <c r="C107" s="6">
         <v>19.77</v>
       </c>
-      <c r="D107" s="3">
+      <c r="D107" s="6">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B108" s="6" t="s">
+      <c r="E107" s="5">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B108" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C108" s="3">
+      <c r="C108" s="6">
         <v>13.17</v>
       </c>
-      <c r="D108" s="3">
+      <c r="D108" s="6">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B109" s="6" t="s">
+      <c r="E108" s="5">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B109" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C109" s="3">
+      <c r="C109" s="6">
         <v>18.88</v>
       </c>
-      <c r="D109" s="3">
+      <c r="D109" s="6">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B110" s="6" t="s">
+      <c r="E109" s="5">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B110" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C110" s="3">
+      <c r="C110" s="6">
         <v>17.82</v>
       </c>
-      <c r="D110" s="3">
+      <c r="D110" s="6">
         <v>40</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B111" s="6" t="s">
+      <c r="E110" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B111" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C111" s="3">
+      <c r="C111" s="6">
         <v>74.48</v>
       </c>
-      <c r="D111" s="3">
+      <c r="D111" s="6">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B112" s="6" t="s">
+      <c r="E111" s="5">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B112" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C112" s="3">
+      <c r="C112" s="6">
         <v>73.430000000000007</v>
       </c>
-      <c r="D112" s="3">
+      <c r="D112" s="6">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B113" s="6" t="s">
+      <c r="E112" s="5">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B113" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C113" s="3">
+      <c r="C113" s="6">
         <v>44.73</v>
       </c>
-      <c r="D113" s="3">
+      <c r="D113" s="6">
         <v>45</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B114" s="6" t="s">
+      <c r="E113" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B114" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C114" s="3">
+      <c r="C114" s="6">
         <v>13.61</v>
       </c>
-      <c r="D114" s="3">
+      <c r="D114" s="6">
         <v>40</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B115" s="6" t="s">
+      <c r="E114" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B115" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C115" s="3">
+      <c r="C115" s="6">
         <v>49.93</v>
       </c>
-      <c r="D115" s="3">
+      <c r="D115" s="6">
         <v>47.1</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B116" s="6" t="s">
+      <c r="E115" s="5">
+        <v>47.1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B116" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C116" s="3">
+      <c r="C116" s="6">
         <v>5.98</v>
       </c>
-      <c r="D116" s="3">
+      <c r="D116" s="6">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B117" s="6" t="s">
+      <c r="E116" s="5">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B117" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C117" s="3">
+      <c r="C117" s="6">
         <v>5.92</v>
       </c>
-      <c r="D117" s="3">
+      <c r="D117" s="6">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B118" s="6" t="s">
+      <c r="E117" s="5">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B118" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C118" s="3">
+      <c r="C118" s="6">
         <v>5.76</v>
       </c>
-      <c r="D118" s="3">
+      <c r="D118" s="6">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B119" s="6" t="s">
+      <c r="E118" s="5">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B119" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C119" s="3">
+      <c r="C119" s="6">
         <v>7.81</v>
       </c>
-      <c r="D119" s="3">
+      <c r="D119" s="6">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B120" s="6" t="s">
+      <c r="E119" s="5">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B120" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C120" s="3">
+      <c r="C120" s="6">
         <v>8.11</v>
       </c>
-      <c r="D120" s="3">
+      <c r="D120" s="6">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B121" s="6" t="s">
+      <c r="E120" s="5">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B121" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C121" s="3">
+      <c r="C121" s="6">
         <v>3.73</v>
       </c>
-      <c r="D121" s="3">
+      <c r="D121" s="6">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B122" s="6" t="s">
+      <c r="E121" s="5">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B122" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C122" s="3">
+      <c r="C122" s="6">
         <v>3.74</v>
       </c>
-      <c r="D122" s="3">
+      <c r="D122" s="6">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B123" s="6" t="s">
+      <c r="E122" s="5">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B123" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C123" s="3">
+      <c r="C123" s="6">
         <v>8.18</v>
       </c>
-      <c r="D123" s="3">
+      <c r="D123" s="6">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B124" s="6" t="s">
+      <c r="E123" s="5">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B124" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C124" s="3">
+      <c r="C124" s="6">
         <v>11.17</v>
       </c>
-      <c r="D124" s="3">
+      <c r="D124" s="6">
         <v>30.1</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B125" s="6" t="s">
+      <c r="E124" s="5">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B125" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C125" s="3">
+      <c r="C125" s="6">
         <v>10.57</v>
       </c>
-      <c r="D125" s="3">
+      <c r="D125" s="6">
         <v>30.1</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B126" s="6" t="s">
+      <c r="E125" s="5">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B126" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C126" s="3">
+      <c r="C126" s="6">
         <v>7.85</v>
       </c>
-      <c r="D126" s="3">
+      <c r="D126" s="6">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B127" s="6" t="s">
+      <c r="E126" s="5">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B127" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C127" s="3">
+      <c r="C127" s="6">
         <v>32.31</v>
       </c>
-      <c r="D127" s="3">
+      <c r="D127" s="6">
         <v>63.2</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B128" s="6" t="s">
+      <c r="E127" s="5">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B128" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C128" s="3">
+      <c r="C128" s="6">
         <v>16.600000000000001</v>
       </c>
-      <c r="D128" s="3">
+      <c r="D128" s="6">
         <v>19.989999999999998</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B129" s="6" t="s">
+      <c r="E128" s="5">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B129" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C129" s="3">
+      <c r="C129" s="6">
         <v>15.27</v>
       </c>
-      <c r="D129" s="3">
+      <c r="D129" s="6">
         <v>19.989999999999998</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B130" s="6" t="s">
+      <c r="E129" s="5">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B130" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C130" s="3">
+      <c r="C130" s="6">
         <v>17.57</v>
       </c>
-      <c r="D130" s="3">
+      <c r="D130" s="6">
         <v>19.989999999999998</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B131" s="6" t="s">
+      <c r="E130" s="5">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B131" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C131" s="3">
+      <c r="C131" s="6">
         <v>16.510000000000002</v>
       </c>
-      <c r="D131" s="3">
+      <c r="D131" s="6">
         <v>19.989999999999998</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B132" s="6" t="s">
+      <c r="E131" s="5">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B132" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C132" s="3">
+      <c r="C132" s="6">
         <v>16.239999999999998</v>
       </c>
-      <c r="D132" s="3">
+      <c r="D132" s="6">
         <v>19.989999999999998</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B133" s="6" t="s">
+      <c r="E132" s="5">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B133" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C133" s="3">
+      <c r="C133" s="6">
         <v>16.48</v>
       </c>
-      <c r="D133" s="3">
+      <c r="D133" s="6">
         <v>19.989999999999998</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B134" s="6" t="s">
+      <c r="E133" s="5">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B134" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C134" s="3">
+      <c r="C134" s="6">
         <v>16.82</v>
       </c>
-      <c r="D134" s="3">
+      <c r="D134" s="6">
         <v>19.989999999999998</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B135" s="6" t="s">
+      <c r="E134" s="5">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B135" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C135" s="3">
+      <c r="C135" s="6">
         <v>16.72</v>
       </c>
-      <c r="D135" s="3">
+      <c r="D135" s="6">
         <v>19.989999999999998</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B136" s="6" t="s">
+      <c r="E135" s="5">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B136" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C136" s="3">
+      <c r="C136" s="6">
         <v>14.59</v>
       </c>
-      <c r="D136" s="3">
+      <c r="D136" s="6">
         <v>25</v>
+      </c>
+      <c r="E136" s="5">
+        <v>15.6</v>
       </c>
     </row>
   </sheetData>

--- a/2. 연구사업(2023년)/6. 분석결과/data_analysis/Log chart_양이온 표시기준 실제값 차이(Log변환)/Ca/ca_data.xlsx
+++ b/2. 연구사업(2023년)/6. 분석결과/data_analysis/Log chart_양이온 표시기준 실제값 차이(Log변환)/Ca/ca_data.xlsx
@@ -30,242 +30,240 @@
     <t>name_new</t>
   </si>
   <si>
-    <t>m-AB</t>
-  </si>
-  <si>
-    <t>m-AC</t>
-  </si>
-  <si>
-    <t>m-AD</t>
-  </si>
-  <si>
-    <t>m-AE</t>
-  </si>
-  <si>
-    <t>m-AF</t>
-  </si>
-  <si>
-    <t>m-AG</t>
-  </si>
-  <si>
-    <t>m-AH</t>
-  </si>
-  <si>
-    <t>m-AI</t>
-  </si>
-  <si>
-    <t>m-AJ</t>
-  </si>
-  <si>
-    <t>m-AK</t>
-  </si>
-  <si>
-    <t>m-AL</t>
-  </si>
-  <si>
-    <t>m-AM</t>
-  </si>
-  <si>
-    <t>m-AN</t>
-  </si>
-  <si>
-    <t>m-AO</t>
-  </si>
-  <si>
-    <t>m-AP</t>
-  </si>
-  <si>
-    <t>m-AQ</t>
-  </si>
-  <si>
-    <t>m-AR</t>
-  </si>
-  <si>
-    <t>m-AS</t>
-  </si>
-  <si>
-    <t>m-AT</t>
-  </si>
-  <si>
-    <t>m-AU</t>
-  </si>
-  <si>
-    <t>m-AV</t>
-  </si>
-  <si>
-    <t>m-AW</t>
-  </si>
-  <si>
-    <t>m-AX</t>
-  </si>
-  <si>
-    <t>m-AY</t>
-  </si>
-  <si>
-    <t>m-AZ</t>
-  </si>
-  <si>
-    <t>m-BC</t>
-  </si>
-  <si>
-    <t>m-BD</t>
-  </si>
-  <si>
-    <t>m-BE</t>
-  </si>
-  <si>
-    <t>m-CQ</t>
-  </si>
-  <si>
-    <t>m-BG</t>
-  </si>
-  <si>
-    <t>m-BH</t>
-  </si>
-  <si>
-    <t>m-BI</t>
-  </si>
-  <si>
-    <t>m-BJ</t>
-  </si>
-  <si>
-    <t>m-BK</t>
-  </si>
-  <si>
-    <t>d-CW</t>
-  </si>
-  <si>
-    <t>d-CY</t>
-  </si>
-  <si>
-    <t>d-DF</t>
-  </si>
-  <si>
-    <t>d-DI</t>
-  </si>
-  <si>
-    <t>d-DJ</t>
-  </si>
-  <si>
-    <t>d-DK</t>
-  </si>
-  <si>
-    <t>d-DO</t>
-  </si>
-  <si>
-    <t>d-DQ</t>
-  </si>
-  <si>
-    <t>d-DS</t>
-  </si>
-  <si>
-    <t>d-DU</t>
-  </si>
-  <si>
-    <t>d-DV</t>
-  </si>
-  <si>
-    <t>d-DW</t>
-  </si>
-  <si>
-    <t>d-DX</t>
-  </si>
-  <si>
-    <t>d-DY</t>
-  </si>
-  <si>
-    <t>d-DZ</t>
-  </si>
-  <si>
-    <t>d-EF</t>
-  </si>
-  <si>
-    <t>d-EG</t>
-  </si>
-  <si>
-    <t>d-EH</t>
-  </si>
-  <si>
-    <t>d-EK</t>
-  </si>
-  <si>
-    <t>d-EN</t>
-  </si>
-  <si>
-    <t>d-EO</t>
-  </si>
-  <si>
-    <t>d-EP</t>
-  </si>
-  <si>
-    <t>d-EV</t>
-  </si>
-  <si>
-    <t>d-EY</t>
-  </si>
-  <si>
-    <t>d-FG</t>
-  </si>
-  <si>
-    <t>d-FJ</t>
-  </si>
-  <si>
-    <t>d-FY</t>
-  </si>
-  <si>
-    <t>d-GH</t>
-  </si>
-  <si>
-    <t>d-GI</t>
-  </si>
-  <si>
-    <t>d-GK</t>
-  </si>
-  <si>
-    <t>d-GO</t>
-  </si>
-  <si>
-    <t>d-GP</t>
-  </si>
-  <si>
-    <t>d-GR</t>
-  </si>
-  <si>
-    <t>d-GT</t>
-  </si>
-  <si>
-    <t>d-GU</t>
-  </si>
-  <si>
-    <t>d-GV</t>
-  </si>
-  <si>
-    <t>d-GX</t>
-  </si>
-  <si>
-    <t>d-GZ</t>
-  </si>
-  <si>
-    <t>d-HM</t>
-  </si>
-  <si>
-    <t>d-HO</t>
-  </si>
-  <si>
-    <t>Mixed water</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Drinking water</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Sample</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Ca_min</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M-AB</t>
+  </si>
+  <si>
+    <t>M-AC</t>
+  </si>
+  <si>
+    <t>M-AD</t>
+  </si>
+  <si>
+    <t>M-AE</t>
+  </si>
+  <si>
+    <t>M-AF</t>
+  </si>
+  <si>
+    <t>M-AG</t>
+  </si>
+  <si>
+    <t>M-AH</t>
+  </si>
+  <si>
+    <t>M-AI</t>
+  </si>
+  <si>
+    <t>M-AJ</t>
+  </si>
+  <si>
+    <t>M-AK</t>
+  </si>
+  <si>
+    <t>M-AL</t>
+  </si>
+  <si>
+    <t>M-AM</t>
+  </si>
+  <si>
+    <t>M-AN</t>
+  </si>
+  <si>
+    <t>M-AO</t>
+  </si>
+  <si>
+    <t>M-AP</t>
+  </si>
+  <si>
+    <t>M-AQ</t>
+  </si>
+  <si>
+    <t>M-AR</t>
+  </si>
+  <si>
+    <t>M-AS</t>
+  </si>
+  <si>
+    <t>M-AT</t>
+  </si>
+  <si>
+    <t>M-AU</t>
+  </si>
+  <si>
+    <t>M-AV</t>
+  </si>
+  <si>
+    <t>M-AW</t>
+  </si>
+  <si>
+    <t>M-AX</t>
+  </si>
+  <si>
+    <t>M-AY</t>
+  </si>
+  <si>
+    <t>M-AZ</t>
+  </si>
+  <si>
+    <t>M-BC</t>
+  </si>
+  <si>
+    <t>M-BD</t>
+  </si>
+  <si>
+    <t>M-BE</t>
+  </si>
+  <si>
+    <t>M-CQ</t>
+  </si>
+  <si>
+    <t>M-BG</t>
+  </si>
+  <si>
+    <t>M-BH</t>
+  </si>
+  <si>
+    <t>M-BI</t>
+  </si>
+  <si>
+    <t>M-BJ</t>
+  </si>
+  <si>
+    <t>M-BK</t>
+  </si>
+  <si>
+    <t>B-CW</t>
+  </si>
+  <si>
+    <t>B-CY</t>
+  </si>
+  <si>
+    <t>B-DF</t>
+  </si>
+  <si>
+    <t>B-DI</t>
+  </si>
+  <si>
+    <t>B-DJ</t>
+  </si>
+  <si>
+    <t>B-DK</t>
+  </si>
+  <si>
+    <t>B-DO</t>
+  </si>
+  <si>
+    <t>B-DQ</t>
+  </si>
+  <si>
+    <t>B-DS</t>
+  </si>
+  <si>
+    <t>B-DU</t>
+  </si>
+  <si>
+    <t>B-DV</t>
+  </si>
+  <si>
+    <t>B-DW</t>
+  </si>
+  <si>
+    <t>B-DX</t>
+  </si>
+  <si>
+    <t>B-DY</t>
+  </si>
+  <si>
+    <t>B-DZ</t>
+  </si>
+  <si>
+    <t>B-EF</t>
+  </si>
+  <si>
+    <t>B-EG</t>
+  </si>
+  <si>
+    <t>B-EH</t>
+  </si>
+  <si>
+    <t>B-EK</t>
+  </si>
+  <si>
+    <t>B-EN</t>
+  </si>
+  <si>
+    <t>B-EO</t>
+  </si>
+  <si>
+    <t>B-EP</t>
+  </si>
+  <si>
+    <t>B-EV</t>
+  </si>
+  <si>
+    <t>B-EY</t>
+  </si>
+  <si>
+    <t>B-FG</t>
+  </si>
+  <si>
+    <t>B-FJ</t>
+  </si>
+  <si>
+    <t>B-FY</t>
+  </si>
+  <si>
+    <t>B-GH</t>
+  </si>
+  <si>
+    <t>B-GI</t>
+  </si>
+  <si>
+    <t>B-GK</t>
+  </si>
+  <si>
+    <t>B-GO</t>
+  </si>
+  <si>
+    <t>B-GP</t>
+  </si>
+  <si>
+    <t>B-GR</t>
+  </si>
+  <si>
+    <t>B-GT</t>
+  </si>
+  <si>
+    <t>B-GU</t>
+  </si>
+  <si>
+    <t>B-GV</t>
+  </si>
+  <si>
+    <t>B-GX</t>
+  </si>
+  <si>
+    <t>B-GZ</t>
+  </si>
+  <si>
+    <t>B-HM</t>
+  </si>
+  <si>
+    <t>B-HO</t>
+  </si>
+  <si>
+    <t>Mineral-infused water</t>
+  </si>
+  <si>
+    <t>Bottled water</t>
   </si>
 </sst>
 </file>
@@ -273,7 +271,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -359,19 +357,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -595,7 +593,7 @@
   <dimension ref="A1:E136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="A1:E136"/>
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -607,7 +605,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -619,15 +617,15 @@
         <v>1</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" s="6">
         <v>39.6</v>
@@ -641,10 +639,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="6">
         <v>8.6999999999999993</v>
@@ -658,10 +656,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" s="6">
         <v>85.18</v>
@@ -675,10 +673,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" s="6">
         <v>32.619999999999997</v>
@@ -692,10 +690,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" s="6">
         <v>3.18</v>
@@ -709,10 +707,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7" s="6">
         <v>0.93</v>
@@ -726,10 +724,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C8" s="6">
         <v>44.54</v>
@@ -743,10 +741,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C9" s="6">
         <v>3.09</v>
@@ -760,10 +758,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C10" s="6">
         <v>2.69</v>
@@ -777,10 +775,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C11" s="6">
         <v>12.96</v>
@@ -790,10 +788,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12" s="6">
         <v>12.87</v>
@@ -803,10 +801,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C13" s="6">
         <v>67.12</v>
@@ -820,10 +818,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C14" s="6">
         <v>10.85</v>
@@ -833,10 +831,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C15" s="6">
         <v>36.57</v>
@@ -846,10 +844,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C16" s="6">
         <v>16.57</v>
@@ -859,10 +857,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="6">
         <v>25.59</v>
@@ -876,10 +874,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C18" s="6">
         <v>84.12</v>
@@ -893,10 +891,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C19" s="6">
         <v>29.37</v>
@@ -906,10 +904,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C20" s="6">
         <v>23.2</v>
@@ -919,10 +917,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C21" s="6">
         <v>57.06</v>
@@ -936,10 +934,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C22" s="6">
         <v>10.14</v>
@@ -953,10 +951,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" s="6">
         <v>30.81</v>
@@ -970,10 +968,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C24" s="6">
         <v>14.6</v>
@@ -987,10 +985,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C25" s="6">
         <v>54.03</v>
@@ -1004,10 +1002,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C26" s="6">
         <v>84.64</v>
@@ -1021,10 +1019,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C27" s="6">
         <v>36.39</v>
@@ -1038,10 +1036,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C28" s="6">
         <v>13.72</v>
@@ -1051,10 +1049,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C29" s="6">
         <v>73.540000000000006</v>
@@ -1064,10 +1062,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C30" s="6">
         <v>109.39</v>
@@ -1081,10 +1079,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C31" s="6">
         <v>56.79</v>
@@ -1098,10 +1096,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C32" s="6">
         <v>10.9</v>
@@ -1111,10 +1109,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C33" s="6">
         <v>0.3</v>
@@ -1124,10 +1122,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C34" s="6">
         <v>34.450000000000003</v>
@@ -1141,10 +1139,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C35" s="6">
         <v>17.12</v>
@@ -1154,10 +1152,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C36" s="6">
         <v>18.46</v>
@@ -1171,10 +1169,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C37" s="6">
         <v>16.829999999999998</v>
@@ -1188,10 +1186,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C38" s="6">
         <v>21.88</v>
@@ -1205,10 +1203,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C39" s="6">
         <v>22.21</v>
@@ -1222,10 +1220,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C40" s="6">
         <v>16.73</v>
@@ -1239,10 +1237,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C41" s="6">
         <v>28.25</v>
@@ -1256,10 +1254,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C42" s="6">
         <v>20.49</v>
@@ -1273,10 +1271,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C43" s="6">
         <v>23.31</v>
@@ -1290,10 +1288,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C44" s="6">
         <v>26.8</v>
@@ -1307,10 +1305,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C45" s="6">
         <v>26.91</v>
@@ -1324,10 +1322,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C46" s="6">
         <v>5.0199999999999996</v>
@@ -1341,10 +1339,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C47" s="6">
         <v>5.04</v>
@@ -1358,10 +1356,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C48" s="6">
         <v>5.0999999999999996</v>
@@ -1375,10 +1373,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C49" s="6">
         <v>5.07</v>
@@ -1392,10 +1390,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C50" s="6">
         <v>24.44</v>
@@ -1409,10 +1407,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C51" s="6">
         <v>23.47</v>
@@ -1426,10 +1424,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C52" s="6">
         <v>33.770000000000003</v>
@@ -1443,10 +1441,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C53" s="6">
         <v>33.47</v>
@@ -1460,10 +1458,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C54" s="6">
         <v>15.72</v>
@@ -1477,10 +1475,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C55" s="6">
         <v>21.65</v>
@@ -1494,10 +1492,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C56" s="6">
         <v>23.3</v>
@@ -1511,10 +1509,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C57" s="6">
         <v>11.69</v>
@@ -1528,10 +1526,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C58" s="6">
         <v>12.58</v>
@@ -1545,10 +1543,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C59" s="6">
         <v>23.18</v>
@@ -1558,10 +1556,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C60" s="6">
         <v>15.62</v>
@@ -1575,10 +1573,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C61" s="6">
         <v>13.43</v>
@@ -1592,10 +1590,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C62" s="6">
         <v>14.52</v>
@@ -1609,10 +1607,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C63" s="6">
         <v>23.09</v>
@@ -1626,10 +1624,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C64" s="6">
         <v>22.45</v>
@@ -1643,10 +1641,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C65" s="6">
         <v>22</v>
@@ -1660,10 +1658,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C66" s="6">
         <v>22.27</v>
@@ -1677,10 +1675,10 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C67" s="6">
         <v>14.35</v>
@@ -1694,10 +1692,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C68" s="6">
         <v>13.57</v>
@@ -1711,10 +1709,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C69" s="6">
         <v>14.28</v>
@@ -1728,10 +1726,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C70" s="6">
         <v>13.98</v>
@@ -1745,10 +1743,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C71" s="6">
         <v>18.88</v>
@@ -1762,10 +1760,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C72" s="6">
         <v>75.010000000000005</v>
@@ -1779,10 +1777,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C73" s="6">
         <v>77.87</v>
@@ -1796,10 +1794,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C74" s="6">
         <v>84.02</v>
@@ -1813,10 +1811,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C75" s="6">
         <v>79.53</v>
@@ -1830,10 +1828,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C76" s="6">
         <v>80.099999999999994</v>
@@ -1847,10 +1845,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C77" s="6">
         <v>83.2</v>
@@ -1864,10 +1862,10 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C78" s="6">
         <v>29.69</v>
@@ -1881,10 +1879,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C79" s="6">
         <v>14.84</v>
@@ -1898,10 +1896,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C80" s="6">
         <v>17.329999999999998</v>
@@ -1915,10 +1913,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C81" s="6">
         <v>28.1</v>
@@ -1932,10 +1930,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C82" s="6">
         <v>20.09</v>
@@ -1949,10 +1947,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C83" s="6">
         <v>21.79</v>
@@ -1966,10 +1964,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C84" s="6">
         <v>27.96</v>
@@ -1983,10 +1981,10 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C85" s="6">
         <v>37.89</v>
@@ -2000,10 +1998,10 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C86" s="6">
         <v>3.76</v>
@@ -2017,10 +2015,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C87" s="6">
         <v>3.47</v>
@@ -2034,10 +2032,10 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C88" s="6">
         <v>3.43</v>
@@ -2051,10 +2049,10 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C89" s="6">
         <v>3.43</v>
@@ -2068,10 +2066,10 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C90" s="6">
         <v>3.43</v>
@@ -2085,10 +2083,10 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C91" s="6">
         <v>3.41</v>
@@ -2102,10 +2100,10 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C92" s="6">
         <v>22.62</v>
@@ -2119,10 +2117,10 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C93" s="6">
         <v>22.51</v>
@@ -2136,10 +2134,10 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C94" s="6">
         <v>24.29</v>
@@ -2153,10 +2151,10 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C95" s="6">
         <v>26.55</v>
@@ -2170,10 +2168,10 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C96" s="6">
         <v>22.37</v>
@@ -2187,10 +2185,10 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C97" s="6">
         <v>33.340000000000003</v>
@@ -2204,10 +2202,10 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C98" s="6">
         <v>30.6</v>
@@ -2221,10 +2219,10 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C99" s="6">
         <v>30</v>
@@ -2238,10 +2236,10 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C100" s="6">
         <v>29.91</v>
@@ -2255,10 +2253,10 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C101" s="6">
         <v>25.39</v>
@@ -2272,10 +2270,10 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C102" s="6">
         <v>28.49</v>
@@ -2289,10 +2287,10 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C103" s="6">
         <v>22.96</v>
@@ -2306,10 +2304,10 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C104" s="6">
         <v>12.67</v>
@@ -2319,10 +2317,10 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C105" s="6">
         <v>17.7</v>
@@ -2336,10 +2334,10 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C106" s="6">
         <v>14.68</v>
@@ -2353,10 +2351,10 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C107" s="6">
         <v>19.77</v>
@@ -2370,10 +2368,10 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C108" s="6">
         <v>13.17</v>
@@ -2387,10 +2385,10 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C109" s="6">
         <v>18.88</v>
@@ -2404,10 +2402,10 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C110" s="6">
         <v>17.82</v>
@@ -2421,10 +2419,10 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C111" s="6">
         <v>74.48</v>
@@ -2438,10 +2436,10 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C112" s="6">
         <v>73.430000000000007</v>
@@ -2455,10 +2453,10 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C113" s="6">
         <v>44.73</v>
@@ -2472,10 +2470,10 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C114" s="6">
         <v>13.61</v>
@@ -2489,10 +2487,10 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C115" s="6">
         <v>49.93</v>
@@ -2506,10 +2504,10 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C116" s="6">
         <v>5.98</v>
@@ -2523,10 +2521,10 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C117" s="6">
         <v>5.92</v>
@@ -2540,10 +2538,10 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C118" s="6">
         <v>5.76</v>
@@ -2557,10 +2555,10 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C119" s="6">
         <v>7.81</v>
@@ -2574,10 +2572,10 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C120" s="6">
         <v>8.11</v>
@@ -2591,10 +2589,10 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C121" s="6">
         <v>3.73</v>
@@ -2608,10 +2606,10 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C122" s="6">
         <v>3.74</v>
@@ -2625,10 +2623,10 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C123" s="6">
         <v>8.18</v>
@@ -2642,10 +2640,10 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C124" s="6">
         <v>11.17</v>
@@ -2659,10 +2657,10 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C125" s="6">
         <v>10.57</v>
@@ -2676,10 +2674,10 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C126" s="6">
         <v>7.85</v>
@@ -2693,10 +2691,10 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C127" s="6">
         <v>32.31</v>
@@ -2710,10 +2708,10 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B128" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="C128" s="6">
         <v>16.600000000000001</v>
@@ -2727,10 +2725,10 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B129" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="C129" s="6">
         <v>15.27</v>
@@ -2744,10 +2742,10 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B130" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="C130" s="6">
         <v>17.57</v>
@@ -2761,10 +2759,10 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B131" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="C131" s="6">
         <v>16.510000000000002</v>
@@ -2778,10 +2776,10 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B132" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="C132" s="6">
         <v>16.239999999999998</v>
@@ -2795,10 +2793,10 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B133" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="C133" s="6">
         <v>16.48</v>
@@ -2812,10 +2810,10 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B134" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="C134" s="6">
         <v>16.82</v>
@@ -2829,10 +2827,10 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B135" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="C135" s="6">
         <v>16.72</v>
@@ -2846,10 +2844,10 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C136" s="6">
         <v>14.59</v>

--- a/2. 연구사업(2023년)/6. 분석결과/data_analysis/Log chart_양이온 표시기준 실제값 차이(Log변환)/Ca/ca_data.xlsx
+++ b/2. 연구사업(2023년)/6. 분석결과/data_analysis/Log chart_양이온 표시기준 실제값 차이(Log변환)/Ca/ca_data.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="82">
   <si>
     <t>Ca</t>
   </si>
@@ -264,6 +264,10 @@
   </si>
   <si>
     <t>Bottled water</t>
+  </si>
+  <si>
+    <t>Ca_ave</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -353,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -372,6 +376,7 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -590,10 +595,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E136"/>
+  <dimension ref="A1:F136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -603,7 +608,7 @@
     <col min="3" max="16384" width="12.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -619,8 +624,11 @@
       <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>79</v>
       </c>
@@ -636,8 +644,12 @@
       <c r="E2" s="5">
         <v>3.09</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="8">
+        <f>AVERAGE(D2:E2)</f>
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>79</v>
       </c>
@@ -653,8 +665,12 @@
       <c r="E3" s="5">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="8">
+        <f t="shared" ref="F3:F66" si="0">AVERAGE(D3:E3)</f>
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>79</v>
       </c>
@@ -670,8 +686,12 @@
       <c r="E4" s="5">
         <v>87.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="8">
+        <f t="shared" si="0"/>
+        <v>87.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>79</v>
       </c>
@@ -687,8 +707,12 @@
       <c r="E5" s="5">
         <v>27.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="8">
+        <f t="shared" si="0"/>
+        <v>27.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>79</v>
       </c>
@@ -704,8 +728,12 @@
       <c r="E6" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>79</v>
       </c>
@@ -721,8 +749,12 @@
       <c r="E7" s="5">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" s="8">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>79</v>
       </c>
@@ -738,8 +770,12 @@
       <c r="E8" s="5">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" s="8">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>79</v>
       </c>
@@ -755,8 +791,12 @@
       <c r="E9" s="5">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" s="8">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>79</v>
       </c>
@@ -772,8 +812,12 @@
       <c r="E10" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>79</v>
       </c>
@@ -785,8 +829,9 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>79</v>
       </c>
@@ -798,8 +843,9 @@
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>79</v>
       </c>
@@ -815,8 +861,12 @@
       <c r="E13" s="5">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" s="8">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>79</v>
       </c>
@@ -828,8 +878,9 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>79</v>
       </c>
@@ -841,8 +892,9 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>79</v>
       </c>
@@ -854,8 +906,9 @@
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>79</v>
       </c>
@@ -871,8 +924,12 @@
       <c r="E17" s="5">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" s="8">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>79</v>
       </c>
@@ -888,8 +945,12 @@
       <c r="E18" s="5">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" s="8">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>79</v>
       </c>
@@ -901,8 +962,9 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>79</v>
       </c>
@@ -914,8 +976,9 @@
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>79</v>
       </c>
@@ -931,8 +994,12 @@
       <c r="E21" s="5">
         <v>62.81</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" s="8">
+        <f t="shared" si="0"/>
+        <v>62.81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>79</v>
       </c>
@@ -948,8 +1015,12 @@
       <c r="E22" s="5">
         <v>30.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" s="8">
+        <f t="shared" si="0"/>
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>79</v>
       </c>
@@ -965,8 +1036,12 @@
       <c r="E23" s="5">
         <v>32</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" s="8">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>79</v>
       </c>
@@ -982,8 +1057,12 @@
       <c r="E24" s="5">
         <v>23.06</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" s="8">
+        <f t="shared" si="0"/>
+        <v>24.405000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>79</v>
       </c>
@@ -999,8 +1078,12 @@
       <c r="E25" s="5">
         <v>43.1</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" s="8">
+        <f t="shared" si="0"/>
+        <v>53.900000000000006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>79</v>
       </c>
@@ -1016,8 +1099,12 @@
       <c r="E26" s="5">
         <v>43.6</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" s="8">
+        <f t="shared" si="0"/>
+        <v>43.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>79</v>
       </c>
@@ -1033,8 +1120,12 @@
       <c r="E27" s="5">
         <v>20.8</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" s="8">
+        <f t="shared" si="0"/>
+        <v>23.700000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>79</v>
       </c>
@@ -1046,8 +1137,9 @@
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>79</v>
       </c>
@@ -1059,8 +1151,9 @@
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>79</v>
       </c>
@@ -1076,8 +1169,12 @@
       <c r="E30" s="5">
         <v>86.2</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" s="8">
+        <f t="shared" si="0"/>
+        <v>107.80000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>79</v>
       </c>
@@ -1093,8 +1190,12 @@
       <c r="E31" s="5">
         <v>40.01</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" s="8">
+        <f t="shared" si="0"/>
+        <v>50.015000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>79</v>
       </c>
@@ -1106,8 +1207,9 @@
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>79</v>
       </c>
@@ -1119,8 +1221,9 @@
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="5"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>79</v>
       </c>
@@ -1136,8 +1239,12 @@
       <c r="E34" s="5">
         <v>7.86</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" s="8">
+        <f t="shared" si="0"/>
+        <v>7.86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>79</v>
       </c>
@@ -1149,8 +1256,9 @@
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="5"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>80</v>
       </c>
@@ -1166,8 +1274,12 @@
       <c r="E36" s="5">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36" s="8">
+        <f t="shared" si="0"/>
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>80</v>
       </c>
@@ -1183,8 +1295,12 @@
       <c r="E37" s="5">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37" s="8">
+        <f t="shared" si="0"/>
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>80</v>
       </c>
@@ -1200,8 +1316,12 @@
       <c r="E38" s="5">
         <v>21.1</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" s="8">
+        <f t="shared" si="0"/>
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>80</v>
       </c>
@@ -1217,8 +1337,12 @@
       <c r="E39" s="5">
         <v>21.1</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39" s="8">
+        <f t="shared" si="0"/>
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>80</v>
       </c>
@@ -1234,8 +1358,12 @@
       <c r="E40" s="5">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40" s="8">
+        <f t="shared" si="0"/>
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>80</v>
       </c>
@@ -1251,8 +1379,12 @@
       <c r="E41" s="5">
         <v>21.1</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41" s="8">
+        <f t="shared" si="0"/>
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>80</v>
       </c>
@@ -1268,8 +1400,12 @@
       <c r="E42" s="5">
         <v>21.1</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42" s="8">
+        <f t="shared" si="0"/>
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>80</v>
       </c>
@@ -1285,8 +1421,12 @@
       <c r="E43" s="5">
         <v>21.1</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43" s="8">
+        <f t="shared" si="0"/>
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>80</v>
       </c>
@@ -1302,8 +1442,12 @@
       <c r="E44" s="5">
         <v>21.1</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44" s="8">
+        <f t="shared" si="0"/>
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>80</v>
       </c>
@@ -1319,8 +1463,12 @@
       <c r="E45" s="5">
         <v>21.1</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45" s="8">
+        <f t="shared" si="0"/>
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>80</v>
       </c>
@@ -1336,8 +1484,12 @@
       <c r="E46" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46" s="8">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>80</v>
       </c>
@@ -1353,8 +1505,12 @@
       <c r="E47" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47" s="8">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>80</v>
       </c>
@@ -1370,8 +1526,12 @@
       <c r="E48" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48" s="8">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>80</v>
       </c>
@@ -1387,8 +1547,12 @@
       <c r="E49" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49" s="8">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>80</v>
       </c>
@@ -1404,8 +1568,12 @@
       <c r="E50" s="5">
         <v>17</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50" s="8">
+        <f t="shared" si="0"/>
+        <v>22.65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>80</v>
       </c>
@@ -1421,8 +1589,12 @@
       <c r="E51" s="5">
         <v>17</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51" s="8">
+        <f t="shared" si="0"/>
+        <v>22.65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>80</v>
       </c>
@@ -1438,8 +1610,12 @@
       <c r="E52" s="5">
         <v>26.6</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52" s="8">
+        <f t="shared" si="0"/>
+        <v>32.25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>80</v>
       </c>
@@ -1455,8 +1631,12 @@
       <c r="E53" s="5">
         <v>26.6</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53" s="8">
+        <f t="shared" si="0"/>
+        <v>32.25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>80</v>
       </c>
@@ -1472,8 +1652,12 @@
       <c r="E54" s="5">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54" s="8">
+        <f t="shared" si="0"/>
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>80</v>
       </c>
@@ -1489,8 +1673,12 @@
       <c r="E55" s="5">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55" s="8">
+        <f t="shared" si="0"/>
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>80</v>
       </c>
@@ -1506,8 +1694,12 @@
       <c r="E56" s="5">
         <v>15.6</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56" s="8">
+        <f t="shared" si="0"/>
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>80</v>
       </c>
@@ -1523,8 +1715,12 @@
       <c r="E57" s="5">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57" s="8">
+        <f t="shared" si="0"/>
+        <v>12.95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>80</v>
       </c>
@@ -1540,8 +1736,12 @@
       <c r="E58" s="5">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58" s="8">
+        <f t="shared" si="0"/>
+        <v>11.95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>80</v>
       </c>
@@ -1553,8 +1753,9 @@
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="5"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59" s="8"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>80</v>
       </c>
@@ -1570,8 +1771,12 @@
       <c r="E60" s="5">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60" s="8">
+        <f t="shared" si="0"/>
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>80</v>
       </c>
@@ -1587,8 +1792,12 @@
       <c r="E61" s="5">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61" s="8">
+        <f t="shared" si="0"/>
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>80</v>
       </c>
@@ -1604,8 +1813,12 @@
       <c r="E62" s="5">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62" s="8">
+        <f t="shared" si="0"/>
+        <v>9.8999999999999986</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>80</v>
       </c>
@@ -1621,8 +1834,12 @@
       <c r="E63" s="5">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63" s="8">
+        <f t="shared" si="0"/>
+        <v>19.149999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>80</v>
       </c>
@@ -1638,8 +1855,12 @@
       <c r="E64" s="5">
         <v>15.6</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64" s="8">
+        <f t="shared" si="0"/>
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>80</v>
       </c>
@@ -1655,8 +1876,12 @@
       <c r="E65" s="5">
         <v>15.6</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65" s="8">
+        <f t="shared" si="0"/>
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>80</v>
       </c>
@@ -1672,8 +1897,12 @@
       <c r="E66" s="5">
         <v>15.6</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66" s="8">
+        <f t="shared" si="0"/>
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>80</v>
       </c>
@@ -1689,8 +1918,12 @@
       <c r="E67" s="5">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67" s="8">
+        <f t="shared" ref="F67:F130" si="1">AVERAGE(D67:E67)</f>
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>80</v>
       </c>
@@ -1706,8 +1939,12 @@
       <c r="E68" s="5">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F68" s="8">
+        <f t="shared" si="1"/>
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>80</v>
       </c>
@@ -1723,8 +1960,12 @@
       <c r="E69" s="5">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69" s="8">
+        <f t="shared" si="1"/>
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>80</v>
       </c>
@@ -1740,8 +1981,12 @@
       <c r="E70" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F70" s="8">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>80</v>
       </c>
@@ -1757,8 +2002,12 @@
       <c r="E71" s="5">
         <v>13.94</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71" s="8">
+        <f t="shared" si="1"/>
+        <v>16.965</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>80</v>
       </c>
@@ -1774,8 +2023,12 @@
       <c r="E72" s="5">
         <v>24.1</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F72" s="8">
+        <f t="shared" si="1"/>
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>80</v>
       </c>
@@ -1791,8 +2044,12 @@
       <c r="E73" s="5">
         <v>24.1</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F73" s="8">
+        <f t="shared" si="1"/>
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>80</v>
       </c>
@@ -1808,8 +2065,12 @@
       <c r="E74" s="5">
         <v>24.1</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F74" s="8">
+        <f t="shared" si="1"/>
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>80</v>
       </c>
@@ -1825,8 +2086,12 @@
       <c r="E75" s="5">
         <v>24.1</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F75" s="8">
+        <f t="shared" si="1"/>
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>80</v>
       </c>
@@ -1842,8 +2107,12 @@
       <c r="E76" s="5">
         <v>24.1</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F76" s="8">
+        <f t="shared" si="1"/>
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>80</v>
       </c>
@@ -1859,8 +2128,12 @@
       <c r="E77" s="5">
         <v>24.1</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F77" s="8">
+        <f t="shared" si="1"/>
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
         <v>80</v>
       </c>
@@ -1876,8 +2149,12 @@
       <c r="E78" s="5">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F78" s="8">
+        <f t="shared" si="1"/>
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
         <v>80</v>
       </c>
@@ -1893,8 +2170,12 @@
       <c r="E79" s="5">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F79" s="8">
+        <f t="shared" si="1"/>
+        <v>12.95</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
         <v>80</v>
       </c>
@@ -1910,8 +2191,12 @@
       <c r="E80" s="5">
         <v>13.94</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F80" s="8">
+        <f t="shared" si="1"/>
+        <v>16.965</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
         <v>80</v>
       </c>
@@ -1927,8 +2212,12 @@
       <c r="E81" s="5">
         <v>20.6</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F81" s="8">
+        <f t="shared" si="1"/>
+        <v>41.900000000000006</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>80</v>
       </c>
@@ -1944,8 +2233,12 @@
       <c r="E82" s="5">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F82" s="8">
+        <f t="shared" si="1"/>
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>80</v>
       </c>
@@ -1961,8 +2254,12 @@
       <c r="E83" s="5">
         <v>15.6</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F83" s="8">
+        <f t="shared" si="1"/>
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
         <v>80</v>
       </c>
@@ -1978,8 +2275,12 @@
       <c r="E84" s="5">
         <v>20.6</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F84" s="8">
+        <f t="shared" si="1"/>
+        <v>41.900000000000006</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>80</v>
       </c>
@@ -1995,8 +2296,12 @@
       <c r="E85" s="5">
         <v>20.6</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F85" s="8">
+        <f t="shared" si="1"/>
+        <v>41.900000000000006</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
         <v>80</v>
       </c>
@@ -2012,8 +2317,12 @@
       <c r="E86" s="5">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F86" s="8">
+        <f t="shared" si="1"/>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
         <v>80</v>
       </c>
@@ -2029,8 +2338,12 @@
       <c r="E87" s="5">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F87" s="8">
+        <f t="shared" si="1"/>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
         <v>80</v>
       </c>
@@ -2046,8 +2359,12 @@
       <c r="E88" s="5">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F88" s="8">
+        <f t="shared" si="1"/>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
         <v>80</v>
       </c>
@@ -2063,8 +2380,12 @@
       <c r="E89" s="5">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F89" s="8">
+        <f t="shared" si="1"/>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
         <v>80</v>
       </c>
@@ -2080,8 +2401,12 @@
       <c r="E90" s="5">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F90" s="8">
+        <f t="shared" si="1"/>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
         <v>80</v>
       </c>
@@ -2097,8 +2422,12 @@
       <c r="E91" s="5">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F91" s="8">
+        <f t="shared" si="1"/>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
         <v>80</v>
       </c>
@@ -2114,8 +2443,12 @@
       <c r="E92" s="5">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F92" s="8">
+        <f t="shared" si="1"/>
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
         <v>80</v>
       </c>
@@ -2131,8 +2464,12 @@
       <c r="E93" s="5">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F93" s="8">
+        <f t="shared" si="1"/>
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
         <v>80</v>
       </c>
@@ -2148,8 +2485,12 @@
       <c r="E94" s="5">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F94" s="8">
+        <f t="shared" si="1"/>
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
         <v>80</v>
       </c>
@@ -2165,8 +2506,12 @@
       <c r="E95" s="5">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F95" s="8">
+        <f t="shared" si="1"/>
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
         <v>80</v>
       </c>
@@ -2182,8 +2527,12 @@
       <c r="E96" s="5">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F96" s="8">
+        <f t="shared" si="1"/>
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
         <v>80</v>
       </c>
@@ -2199,8 +2548,12 @@
       <c r="E97" s="5">
         <v>20.6</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F97" s="8">
+        <f t="shared" si="1"/>
+        <v>41.900000000000006</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
         <v>80</v>
       </c>
@@ -2216,8 +2569,12 @@
       <c r="E98" s="5">
         <v>20.6</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F98" s="8">
+        <f t="shared" si="1"/>
+        <v>41.900000000000006</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
         <v>80</v>
       </c>
@@ -2233,8 +2590,12 @@
       <c r="E99" s="5">
         <v>20.6</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F99" s="8">
+        <f t="shared" si="1"/>
+        <v>41.900000000000006</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
         <v>80</v>
       </c>
@@ -2250,8 +2611,12 @@
       <c r="E100" s="5">
         <v>20.6</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F100" s="8">
+        <f t="shared" si="1"/>
+        <v>41.900000000000006</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
         <v>80</v>
       </c>
@@ -2267,8 +2632,12 @@
       <c r="E101" s="5">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F101" s="8">
+        <f t="shared" si="1"/>
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
         <v>80</v>
       </c>
@@ -2284,8 +2653,12 @@
       <c r="E102" s="5">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F102" s="8">
+        <f t="shared" si="1"/>
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
         <v>80</v>
       </c>
@@ -2301,8 +2674,12 @@
       <c r="E103" s="5">
         <v>17.8</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F103" s="8">
+        <f t="shared" si="1"/>
+        <v>23.05</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
         <v>80</v>
       </c>
@@ -2314,8 +2691,9 @@
       </c>
       <c r="D104" s="3"/>
       <c r="E104" s="5"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F104" s="8"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
         <v>80</v>
       </c>
@@ -2331,8 +2709,12 @@
       <c r="E105" s="5">
         <v>13.94</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F105" s="8">
+        <f t="shared" si="1"/>
+        <v>16.965</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
         <v>80</v>
       </c>
@@ -2348,8 +2730,12 @@
       <c r="E106" s="5">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F106" s="8">
+        <f t="shared" si="1"/>
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
         <v>80</v>
       </c>
@@ -2365,8 +2751,12 @@
       <c r="E107" s="5">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F107" s="8">
+        <f t="shared" si="1"/>
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
         <v>80</v>
       </c>
@@ -2382,8 +2772,12 @@
       <c r="E108" s="5">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F108" s="8">
+        <f t="shared" si="1"/>
+        <v>9.8999999999999986</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
         <v>80</v>
       </c>
@@ -2399,8 +2793,12 @@
       <c r="E109" s="5">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F109" s="8">
+        <f t="shared" si="1"/>
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
         <v>80</v>
       </c>
@@ -2416,8 +2814,12 @@
       <c r="E110" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F110" s="8">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
         <v>80</v>
       </c>
@@ -2433,8 +2835,12 @@
       <c r="E111" s="5">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F111" s="8">
+        <f t="shared" si="1"/>
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
         <v>80</v>
       </c>
@@ -2450,8 +2856,12 @@
       <c r="E112" s="5">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F112" s="8">
+        <f t="shared" si="1"/>
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
         <v>80</v>
       </c>
@@ -2467,8 +2877,12 @@
       <c r="E113" s="5">
         <v>45</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F113" s="8">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
         <v>80</v>
       </c>
@@ -2484,8 +2898,12 @@
       <c r="E114" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F114" s="8">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
         <v>80</v>
       </c>
@@ -2501,8 +2919,12 @@
       <c r="E115" s="5">
         <v>47.1</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F115" s="8">
+        <f t="shared" si="1"/>
+        <v>47.1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
         <v>80</v>
       </c>
@@ -2518,8 +2940,12 @@
       <c r="E116" s="5">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F116" s="8">
+        <f t="shared" si="1"/>
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
         <v>80</v>
       </c>
@@ -2535,8 +2961,12 @@
       <c r="E117" s="5">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F117" s="8">
+        <f t="shared" si="1"/>
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
         <v>80</v>
       </c>
@@ -2552,8 +2982,12 @@
       <c r="E118" s="5">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F118" s="8">
+        <f t="shared" si="1"/>
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
         <v>80</v>
       </c>
@@ -2569,8 +3003,12 @@
       <c r="E119" s="5">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F119" s="8">
+        <f t="shared" si="1"/>
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
         <v>80</v>
       </c>
@@ -2586,8 +3024,12 @@
       <c r="E120" s="5">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F120" s="8">
+        <f t="shared" si="1"/>
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
         <v>80</v>
       </c>
@@ -2603,8 +3045,12 @@
       <c r="E121" s="5">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F121" s="8">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
         <v>80</v>
       </c>
@@ -2620,8 +3066,12 @@
       <c r="E122" s="5">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F122" s="8">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
         <v>80</v>
       </c>
@@ -2637,8 +3087,12 @@
       <c r="E123" s="5">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F123" s="8">
+        <f t="shared" si="1"/>
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
         <v>80</v>
       </c>
@@ -2654,8 +3108,12 @@
       <c r="E124" s="5">
         <v>24.1</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F124" s="8">
+        <f t="shared" si="1"/>
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
         <v>80</v>
       </c>
@@ -2671,8 +3129,12 @@
       <c r="E125" s="5">
         <v>24.1</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F125" s="8">
+        <f t="shared" si="1"/>
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
         <v>80</v>
       </c>
@@ -2688,8 +3150,12 @@
       <c r="E126" s="5">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F126" s="8">
+        <f t="shared" si="1"/>
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
         <v>80</v>
       </c>
@@ -2705,8 +3171,12 @@
       <c r="E127" s="5">
         <v>20.6</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F127" s="8">
+        <f t="shared" si="1"/>
+        <v>41.900000000000006</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
         <v>80</v>
       </c>
@@ -2722,8 +3192,12 @@
       <c r="E128" s="5">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F128" s="8">
+        <f t="shared" si="1"/>
+        <v>16.594999999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
         <v>80</v>
       </c>
@@ -2739,8 +3213,12 @@
       <c r="E129" s="5">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F129" s="8">
+        <f t="shared" si="1"/>
+        <v>16.594999999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
         <v>80</v>
       </c>
@@ -2756,8 +3234,12 @@
       <c r="E130" s="5">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F130" s="8">
+        <f t="shared" si="1"/>
+        <v>16.594999999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
         <v>80</v>
       </c>
@@ -2773,8 +3255,12 @@
       <c r="E131" s="5">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F131" s="8">
+        <f t="shared" ref="F131:F136" si="2">AVERAGE(D131:E131)</f>
+        <v>16.594999999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="s">
         <v>80</v>
       </c>
@@ -2790,8 +3276,12 @@
       <c r="E132" s="5">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F132" s="8">
+        <f t="shared" si="2"/>
+        <v>16.594999999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
         <v>80</v>
       </c>
@@ -2807,8 +3297,12 @@
       <c r="E133" s="5">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F133" s="8">
+        <f t="shared" si="2"/>
+        <v>16.594999999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="6" t="s">
         <v>80</v>
       </c>
@@ -2824,8 +3318,12 @@
       <c r="E134" s="5">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F134" s="8">
+        <f t="shared" si="2"/>
+        <v>16.594999999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
         <v>80</v>
       </c>
@@ -2841,8 +3339,12 @@
       <c r="E135" s="5">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F135" s="8">
+        <f t="shared" si="2"/>
+        <v>16.594999999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
         <v>80</v>
       </c>
@@ -2857,11 +3359,18 @@
       </c>
       <c r="E136" s="5">
         <v>15.6</v>
+      </c>
+      <c r="F136" s="8">
+        <f t="shared" si="2"/>
+        <v>20.3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="F2:F10 F13 F17:F18 F21:F27 F30:F31 F34 F36:F58 F60:F103 F105:F136" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>